--- a/dr/protected/commands/template/m_template_old.xlsx
+++ b/dr/protected/commands/template/m_template_old.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="181">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -1686,7 +1686,7 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -1697,7 +1697,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>&gt;70% : 5
@@ -1705,7 +1705,7 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额</t>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>仅供参考，不计算分数</t>
@@ -2299,6 +2299,15 @@
     <t>离职办公室（工作满一个月的）人数% （当月离职办公室人员/整体办公室人员）</t>
   </si>
   <si>
+    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+  </si>
+  <si>
+    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+  </si>
+  <si>
+    <t>上月技术员最高生意额技术员金额</t>
+  </si>
+  <si>
     <t>年度总分</t>
   </si>
   <si>
@@ -2310,14 +2319,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2412,6 +2421,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2423,16 +2466,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2448,6 +2492,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2455,43 +2507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2505,37 +2521,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2549,12 +2560,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2562,21 +2586,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2594,6 +2603,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2637,6 +2657,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2649,7 +2711,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2661,7 +2813,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2673,13 +2837,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2691,115 +2885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2811,55 +2897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,31 +2909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2991,16 +3011,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3031,11 +3051,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3050,16 +3068,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3082,19 +3100,21 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="62"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3127,205 +3147,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3334,25 +3354,25 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3375,7 +3395,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
@@ -3408,7 +3428,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3423,7 +3443,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,7 +3452,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3441,10 +3461,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3459,13 +3479,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3474,7 +3494,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3489,7 +3509,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3501,7 +3521,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3519,7 +3539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3534,7 +3554,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3543,7 +3563,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3552,7 +3572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3561,7 +3581,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3570,13 +3590,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3585,7 +3605,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3597,7 +3617,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3612,7 +3632,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3624,7 +3644,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,13 +3656,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3654,124 +3674,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3834,10 +3854,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3848,10 +3868,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3883,26 +3903,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="合計" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -4855,8 +4875,8 @@
   <sheetPr/>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -8364,7 +8384,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -8382,7 +8402,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -8400,7 +8420,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -10862,7 +10882,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -10880,7 +10900,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -10898,7 +10918,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -13360,7 +13380,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -13378,7 +13398,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -13396,7 +13416,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -15509,7 +15529,7 @@
       <c r="B72" s="28"/>
       <c r="C72" s="29"/>
       <c r="D72" s="30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E72" s="31">
         <f>SUM(E74:E123)</f>
@@ -15520,7 +15540,7 @@
       <c r="A73" s="32"/>
       <c r="B73" s="33"/>
       <c r="C73" s="34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="36">
@@ -15717,7 +15737,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="59" t="s">
         <v>104</v>
@@ -15731,7 +15751,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:5">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="59" t="s">
         <v>106</v>
@@ -15745,7 +15765,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:5">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="59" t="s">
         <v>108</v>
@@ -17959,7 +17979,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -17977,7 +17997,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -17995,7 +18015,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -20457,7 +20477,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -20475,7 +20495,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -20493,7 +20513,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -22955,7 +22975,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -22973,7 +22993,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -22991,7 +23011,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -25453,7 +25473,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="142" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -25471,7 +25491,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="142" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -25489,7 +25509,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="142" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -27951,7 +27971,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="142" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -27969,7 +27989,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="142" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -27987,7 +28007,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="142" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -30450,7 +30470,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="142" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -30468,7 +30488,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="142" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -30486,7 +30506,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="142" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -32948,7 +32968,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -32966,7 +32986,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -32984,7 +33004,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
@@ -35446,7 +35466,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C87" s="114">
         <f>(B20-30000)/30000</f>
@@ -35464,7 +35484,7 @@
     <row r="88" s="2" customFormat="1" ht="49.5" spans="1:6">
       <c r="A88" s="57"/>
       <c r="B88" s="58" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C88" s="114">
         <f>(B21-30000)/30000</f>
@@ -35482,7 +35502,7 @@
     <row r="89" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A89" s="57"/>
       <c r="B89" s="58" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C89" s="115">
         <f>B21</f>
